--- a/exercises/excercises/ex004.fit_poly.xlsx
+++ b/exercises/excercises/ex004.fit_poly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F4F60F8-E0D4-43E7-9342-F1E673E1793D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458CF6C-8DFD-48F4-A339-88B4E3A01037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29325" yWindow="120" windowWidth="28770" windowHeight="20940" xr2:uid="{AB2D79BE-8058-4974-97CC-EB1221B85D42}"/>
+    <workbookView xWindow="-36015" yWindow="1245" windowWidth="28770" windowHeight="17400" xr2:uid="{AB2D79BE-8058-4974-97CC-EB1221B85D42}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Poly" sheetId="2" r:id="rId1"/>
@@ -2126,11 +2126,25 @@
       <sheetName val="About"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12">
+        <row r="43">
+          <cell r="B43">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="13">
         <row r="41">
           <cell r="E41" t="str">
@@ -3405,11 +3419,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3734,8 +3748,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:X150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
